--- a/assets/schulte_template.xlsx
+++ b/assets/schulte_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\REPOS\re_auto_sentry\sentry_server_flask\test\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F7561D-668C-4F50-B1D9-B042C8F91CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F807D28-B801-4F89-993C-3BC5CDDCED85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{630679EC-F18D-4ECD-9BA7-7DC7CC612769}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="3">
   <si>
     <r>
       <t xml:space="preserve">   </t>
@@ -72,7 +72,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +106,19 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -147,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -164,9 +177,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,104 +495,143 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EFF5897-6D5D-43C0-A31F-C217C32F675F}">
-  <dimension ref="B2:R18"/>
+  <dimension ref="B2:X18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W13" sqref="W13"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" customWidth="1"/>
-    <col min="2" max="18" width="6.7109375" customWidth="1"/>
+    <col min="1" max="24" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
+      <c r="M2" s="7"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
-    </row>
-    <row r="3" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="7"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+    </row>
+    <row r="3" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
+      <c r="M3" s="7"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
-    </row>
-    <row r="4" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S3" s="7"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+    </row>
+    <row r="4" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
+      <c r="M4" s="7"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
-    </row>
-    <row r="5" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="7"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+    </row>
+    <row r="5" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
+      <c r="M5" s="7"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6"/>
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
-    </row>
-    <row r="6" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S5" s="7"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+      <c r="W5" s="6"/>
+      <c r="X5" s="6"/>
+    </row>
+    <row r="6" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
+      <c r="M6" s="7"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
-    </row>
-    <row r="7" spans="2:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="S6" s="7"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+      <c r="W6" s="6"/>
+      <c r="X6" s="6"/>
+    </row>
+    <row r="7" spans="2:24" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,8 +641,11 @@
       <c r="N7" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="T7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
@@ -599,113 +655,160 @@
       <c r="N8" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="2:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="T8" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
       <c r="H9" s="2"/>
       <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="2:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="2:24" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B10" s="2"/>
       <c r="H10" s="2"/>
       <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="2:18" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" spans="2:24" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B11" s="2"/>
       <c r="H11" s="2"/>
       <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
+      <c r="G12" s="7"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
+      <c r="M12" s="7"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
       <c r="P12" s="6"/>
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
-    </row>
-    <row r="13" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S12" s="7"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+    </row>
+    <row r="13" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
+      <c r="G13" s="7"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
       <c r="P13" s="6"/>
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
-    </row>
-    <row r="14" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S13" s="7"/>
+      <c r="T13" s="6"/>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+    </row>
+    <row r="14" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
+      <c r="G14" s="7"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
+      <c r="M14" s="7"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
-    </row>
-    <row r="15" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S14" s="7"/>
+      <c r="T14" s="6"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="6"/>
+      <c r="W14" s="6"/>
+      <c r="X14" s="6"/>
+    </row>
+    <row r="15" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
+      <c r="G15" s="7"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
+      <c r="M15" s="7"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
-    </row>
-    <row r="16" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S15" s="7"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="6"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+    </row>
+    <row r="16" spans="2:24" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
+      <c r="M16" s="7"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="S16" s="7"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="6"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="H17" s="3"/>
       <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="T17" s="3"/>
+    </row>
+    <row r="18" spans="2:20" ht="18.75" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>2</v>
       </c>
@@ -713,6 +816,9 @@
         <v>2</v>
       </c>
       <c r="N18" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T18" s="5" t="s">
         <v>2</v>
       </c>
     </row>
